--- a/Compass.WinForm/bin/Debug/JobCard_Ceiling.xlsx
+++ b/Compass.WinForm/bin/Debug/JobCard_Ceiling.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Compass\Compass\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Compass\Compass.WinForm\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E94BE4-9C2F-45C4-8175-BDBAF2CAAEBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925D8204-35C7-4E9E-9F86-5DD0208B397D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="189">
   <si>
     <t>Order Number 订单编号</t>
   </si>
@@ -495,26 +495,15 @@
     <t>UV system is installed and proper functioning (details in the SOP). UV warning signs have been posted on the UV door. UV系统已安装并正常运作(详见SOP)，UV警示标识已张贴在UV门上。</t>
   </si>
   <si>
-    <t>Installation brackets of UV Rack of UV hoods have been welded. UV烟罩的UV Rack的安装支架已焊接。</t>
-  </si>
-  <si>
     <t>The type of UV control of UV hoods can meet the drawing. UV烟罩的UV控制器型号符合图纸要求。</t>
   </si>
   <si>
-    <t>If a project contains UV hoods,then all KSA filters and washing baffle plates of this project should be assemblied with magnets.
-含UV烟罩的项目，所有KSA过滤器和水洗挡板上的磁铁已安装。</t>
-  </si>
-  <si>
     <t>Ansul pipe watertight test has been done(sample inspection), keep 1.6Mpa pressure for 5min, no leakage.  Ansul管路漏水测试（抽检），打压1.6Mpa保压5min，管路无漏水。</t>
   </si>
   <si>
     <t>Ansul system is installed according to the drawing. Ansul已按图纸安装。</t>
   </si>
   <si>
-    <t>Penetrant testing has been passed,no leakage. Washing pipes and spray nozzles are firmly assembled, the model of spray nozzles and angle are installed correctly.
-水洗烟罩渗透剂已喷，无渗漏。水洗管及喷头装配牢固，喷头型号及角度安装正确。</t>
-  </si>
-  <si>
     <t>MARVEL function test of hoods with MARVEL system is tested and qualified.带MARVEL烟罩的MARVEL系统功能测试合格。</t>
   </si>
   <si>
@@ -627,6 +616,22 @@
   </si>
   <si>
     <t>KCJ</t>
+  </si>
+  <si>
+    <t>If a project contains UV hoods,then all KSA filters and washing baffle plates of this project should be assemblied with magnets.含UV烟罩的项目，所有KSA过滤器和水洗挡板上的磁铁已安装。</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penetrant testing has been passed,no leakage. Washing pipes and spray nozzles are firmly assembled, the model of spray nozzles and angle are installed correctly.水洗烟罩渗透剂已喷，无渗漏。水洗管及喷头装配牢固，喷头型号及角度安装正确。</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>The appearance of the hood is smooth, and the water washing hood is water collecting and flanging 烟罩外观打胶平整，水洗烟罩集水翻边内打防水胶。</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>The mounting bracket shooting pin of the UV Rack of the UV hood has been welded and reinforced. UV烟罩的UV Rack的安装支架 射钉已焊接加固。</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -634,20 +639,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-10409]yyyy/m/d"/>
+    <numFmt numFmtId="176" formatCode="[$-10409]yyyy/m/d"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -745,6 +750,13 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1302,207 +1314,11 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1510,8 +1326,23 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -1540,8 +1371,189 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1735,13 +1747,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>191965</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2042,146 +2054,146 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H215"/>
+  <dimension ref="A1:H216"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:H36"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A148" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A165" sqref="A165:E165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="29"/>
       <c r="B1" s="29"/>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37" t="s">
+      <c r="B5" s="76"/>
+      <c r="C5" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37" t="s">
+      <c r="B6" s="76"/>
+      <c r="C6" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="B7" s="76"/>
+      <c r="C7" s="119" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="B8" s="76"/>
+      <c r="C8" s="119" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="76"/>
+      <c r="C9" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -2207,27 +2219,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="46"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="41"/>
+      <c r="E11" s="97"/>
       <c r="F11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="47" t="s">
+      <c r="G11" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="48"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="116"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
@@ -2237,50 +2249,50 @@
       <c r="C12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="41"/>
+      <c r="D12" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="97"/>
       <c r="F12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="50"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="H12" s="118"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="40"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="41"/>
+      <c r="D13" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="97"/>
       <c r="F13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="112">
         <v>43826</v>
       </c>
-      <c r="H13" s="43"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="H13" s="113"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="41"/>
+      <c r="B14" s="97"/>
       <c r="C14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="41"/>
+      <c r="D14" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="97"/>
       <c r="F14" s="5" t="s">
         <v>12</v>
       </c>
@@ -2291,7 +2303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="9" t="s">
         <v>17</v>
       </c>
@@ -2301,10 +2313,10 @@
       <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="41"/>
+      <c r="D15" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="97"/>
       <c r="F15" s="5" t="s">
         <v>12</v>
       </c>
@@ -2315,7 +2327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="9" t="s">
         <v>23</v>
       </c>
@@ -2325,10 +2337,10 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="41"/>
+      <c r="D16" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="97"/>
       <c r="F16" s="5" t="s">
         <v>12</v>
       </c>
@@ -2339,7 +2351,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="10" t="s">
         <v>25</v>
       </c>
@@ -2349,10 +2361,10 @@
       <c r="C17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="41"/>
+      <c r="D17" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="97"/>
       <c r="F17" s="5" t="s">
         <v>12</v>
       </c>
@@ -2363,7 +2375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -2389,11 +2401,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="A19" s="61" t="s">
+    <row r="19" spans="1:8" ht="33">
+      <c r="A19" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="36"/>
+      <c r="B19" s="76"/>
       <c r="C19" s="32" t="s">
         <v>28</v>
       </c>
@@ -2413,7 +2425,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="30" t="s">
         <v>12</v>
       </c>
@@ -2431,203 +2443,203 @@
       <c r="G20" s="13"/>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="59" t="s">
+    <row r="21" spans="1:8">
+      <c r="A21" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="62"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="59" t="s">
+      <c r="B21" s="109"/>
+      <c r="C21" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="77"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="62"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
+      <c r="B22" s="109"/>
+      <c r="C22" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="77"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1">
+      <c r="A23" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="55"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="59" t="s">
+      <c r="B23" s="78"/>
+      <c r="C23" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="102"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1">
+      <c r="A24" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="58"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="109"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="105"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1">
       <c r="A25" s="28"/>
       <c r="B25" s="29"/>
-      <c r="C25" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="55"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="102"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1">
       <c r="A26" s="28"/>
       <c r="B26" s="29"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="58"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="103"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="105"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
-      <c r="C27" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="55"/>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="102"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1">
       <c r="A28" s="28"/>
       <c r="B28" s="29"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="58"/>
-    </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="103"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="105"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1">
       <c r="A29" s="28"/>
       <c r="B29" s="29"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="55"/>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="90"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="102"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1">
       <c r="A30" s="28"/>
       <c r="B30" s="29"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="58"/>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="103"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="105"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1">
       <c r="A31" s="28"/>
       <c r="B31" s="29"/>
-      <c r="C31" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="55"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="102"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1">
       <c r="A32" s="28"/>
       <c r="B32" s="29"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="58"/>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="103"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="105"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1">
       <c r="A33" s="28"/>
       <c r="B33" s="29"/>
-      <c r="C33" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="55"/>
-    </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="102"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1">
       <c r="A34" s="28"/>
       <c r="B34" s="29"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="58"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="103"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="105"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1">
       <c r="A35" s="28"/>
       <c r="B35" s="29"/>
-      <c r="C35" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="55"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="102"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1">
       <c r="A36" s="28"/>
       <c r="B36" s="29"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="58"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="45" t="s">
+      <c r="C36" s="103"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="105"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="41"/>
+      <c r="B37" s="97"/>
       <c r="C37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="63" t="s">
+      <c r="D37" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
       <c r="G37" s="26" t="s">
         <v>40</v>
       </c>
@@ -2635,322 +2647,322 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
+    <row r="38" spans="1:8">
+      <c r="A38" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="41"/>
+      <c r="B38" s="97"/>
       <c r="C38" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="64"/>
-      <c r="F38" s="65"/>
+      <c r="D38" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="99"/>
+      <c r="F38" s="100"/>
       <c r="G38" s="27"/>
       <c r="H38" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="35" t="s">
+    <row r="39" spans="1:8">
+      <c r="A39" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="41"/>
+      <c r="B39" s="97"/>
       <c r="C39" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="64"/>
-      <c r="F39" s="65"/>
+      <c r="D39" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="99"/>
+      <c r="F39" s="100"/>
       <c r="G39" s="27"/>
       <c r="H39" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="35" t="s">
+    <row r="40" spans="1:8">
+      <c r="A40" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="41"/>
+      <c r="B40" s="97"/>
       <c r="C40" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="64"/>
-      <c r="F40" s="65"/>
+      <c r="D40" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="99"/>
+      <c r="F40" s="100"/>
       <c r="G40" s="27"/>
       <c r="H40" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="35" t="s">
+    <row r="41" spans="1:8">
+      <c r="A41" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="41"/>
+      <c r="B41" s="97"/>
       <c r="C41" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="64"/>
-      <c r="F41" s="65"/>
+      <c r="D41" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="99"/>
+      <c r="F41" s="100"/>
       <c r="G41" s="27"/>
       <c r="H41" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="35" t="s">
+    <row r="42" spans="1:8">
+      <c r="A42" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="41"/>
+      <c r="B42" s="97"/>
       <c r="C42" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="64"/>
-      <c r="F42" s="65"/>
+      <c r="D42" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="99"/>
+      <c r="F42" s="100"/>
       <c r="G42" s="27"/>
       <c r="H42" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="35" t="s">
+    <row r="43" spans="1:8">
+      <c r="A43" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="41"/>
+      <c r="B43" s="97"/>
       <c r="C43" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="64"/>
-      <c r="F43" s="65"/>
+      <c r="D43" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="99"/>
+      <c r="F43" s="100"/>
       <c r="G43" s="27"/>
       <c r="H43" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="35" t="s">
+    <row r="44" spans="1:8">
+      <c r="A44" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="41"/>
+      <c r="B44" s="97"/>
       <c r="C44" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="64"/>
-      <c r="F44" s="65"/>
+      <c r="D44" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="99"/>
+      <c r="F44" s="100"/>
       <c r="G44" s="27"/>
       <c r="H44" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="35" t="s">
+    <row r="45" spans="1:8">
+      <c r="A45" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="41"/>
+      <c r="B45" s="97"/>
       <c r="C45" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="64"/>
-      <c r="F45" s="65"/>
+      <c r="D45" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="99"/>
+      <c r="F45" s="100"/>
       <c r="G45" s="27"/>
       <c r="H45" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="35" t="s">
+    <row r="46" spans="1:8">
+      <c r="A46" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="41"/>
+      <c r="B46" s="97"/>
       <c r="C46" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="64"/>
-      <c r="F46" s="65"/>
+      <c r="D46" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="99"/>
+      <c r="F46" s="100"/>
       <c r="G46" s="27"/>
       <c r="H46" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="35" t="s">
+    <row r="47" spans="1:8">
+      <c r="A47" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="41"/>
+      <c r="B47" s="97"/>
       <c r="C47" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="64"/>
-      <c r="F47" s="65"/>
+      <c r="D47" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="99"/>
+      <c r="F47" s="100"/>
       <c r="G47" s="27"/>
       <c r="H47" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="35" t="s">
+    <row r="48" spans="1:8">
+      <c r="A48" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="41"/>
+      <c r="B48" s="97"/>
       <c r="C48" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="64"/>
-      <c r="F48" s="65"/>
+      <c r="D48" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="99"/>
+      <c r="F48" s="100"/>
       <c r="G48" s="27"/>
       <c r="H48" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="16.5" customHeight="1">
       <c r="A49" s="29"/>
       <c r="B49" s="29"/>
-      <c r="C49" s="38" t="s">
+      <c r="C49" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="87"/>
+      <c r="H49" s="87"/>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="29"/>
       <c r="B50" s="29"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="66" t="s">
+      <c r="C50" s="88"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="88"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="67"/>
-      <c r="C51" s="68" t="str">
+      <c r="B51" s="44"/>
+      <c r="C51" s="74" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D51" s="69"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="62"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="66" t="s">
+      <c r="D51" s="75"/>
+      <c r="E51" s="75"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="77"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="67"/>
-      <c r="C52" s="68" t="str">
+      <c r="B52" s="44"/>
+      <c r="C52" s="74" t="str">
         <f>$C$4</f>
         <v>CMFP190801</v>
       </c>
-      <c r="D52" s="69"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="62"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="66" t="s">
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="77"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="67"/>
-      <c r="C53" s="68" t="str">
+      <c r="B53" s="44"/>
+      <c r="C53" s="74" t="str">
         <f>$C$5</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D53" s="69"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="62"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="66" t="s">
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="77"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="67"/>
-      <c r="C54" s="68" t="str">
+      <c r="B54" s="44"/>
+      <c r="C54" s="74" t="str">
         <f>$C$6</f>
         <v>Halton Korea Ltd.</v>
       </c>
-      <c r="D54" s="69"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="62"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="66" t="s">
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="77"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="67"/>
-      <c r="C55" s="68" t="str">
+      <c r="B55" s="44"/>
+      <c r="C55" s="74" t="str">
         <f>$C$7</f>
         <v>B1-B4</v>
       </c>
-      <c r="D55" s="69"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="62"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="53" t="s">
+      <c r="D55" s="75"/>
+      <c r="E55" s="75"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="77"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="71"/>
-      <c r="C56" s="72" t="str">
+      <c r="B56" s="91"/>
+      <c r="C56" s="92" t="str">
         <f>$C$8</f>
         <v>KCJ</v>
       </c>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="74"/>
-      <c r="G56" s="74"/>
-      <c r="H56" s="75"/>
-    </row>
-    <row r="57" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="A57" s="76"/>
-      <c r="B57" s="76"/>
-      <c r="C57" s="76"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
+      <c r="D56" s="93"/>
+      <c r="E56" s="93"/>
+      <c r="F56" s="94"/>
+      <c r="G56" s="94"/>
+      <c r="H56" s="95"/>
+    </row>
+    <row r="57" spans="1:8" ht="33">
+      <c r="A57" s="83"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="83"/>
       <c r="F57" s="31" t="s">
         <v>55</v>
       </c>
@@ -2961,26 +2973,26 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="70" t="s">
+    <row r="58" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A58" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="70"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="70"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89"/>
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
       <c r="H58" s="16"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="44" t="s">
+    <row r="59" spans="1:8">
+      <c r="A59" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="44"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="84"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="84"/>
       <c r="F59" s="17" t="s">
         <v>12</v>
       </c>
@@ -2989,14 +3001,14 @@
       </c>
       <c r="H59" s="17"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="44" t="s">
+    <row r="60" spans="1:8">
+      <c r="A60" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="84"/>
       <c r="F60" s="17" t="s">
         <v>12</v>
       </c>
@@ -3005,14 +3017,14 @@
       </c>
       <c r="H60" s="17"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="44" t="s">
+    <row r="61" spans="1:8">
+      <c r="A61" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="84"/>
       <c r="F61" s="17" t="s">
         <v>12</v>
       </c>
@@ -3021,14 +3033,14 @@
       </c>
       <c r="H61" s="17"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="44" t="s">
+    <row r="62" spans="1:8">
+      <c r="A62" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="44"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="84"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="84"/>
       <c r="F62" s="17" t="s">
         <v>12</v>
       </c>
@@ -3037,14 +3049,14 @@
       </c>
       <c r="H62" s="17"/>
     </row>
-    <row r="63" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="44" t="s">
+    <row r="63" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A63" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="44"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
+      <c r="B63" s="84"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="84"/>
       <c r="F63" s="17" t="s">
         <v>12</v>
       </c>
@@ -3053,28 +3065,28 @@
       </c>
       <c r="H63" s="17"/>
     </row>
-    <row r="64" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="70" t="s">
+    <row r="64" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A64" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="70"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
+      <c r="B64" s="89"/>
+      <c r="C64" s="89"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="89"/>
       <c r="F64" s="16"/>
       <c r="G64" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H64" s="16"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="44" t="s">
+    <row r="65" spans="1:8">
+      <c r="A65" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="44"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
+      <c r="B65" s="84"/>
+      <c r="C65" s="84"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="84"/>
       <c r="F65" s="17" t="s">
         <v>12</v>
       </c>
@@ -3083,14 +3095,14 @@
       </c>
       <c r="H65" s="17"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="44" t="s">
+    <row r="66" spans="1:8">
+      <c r="A66" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="44"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
+      <c r="B66" s="84"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="84"/>
       <c r="F66" s="17" t="s">
         <v>12</v>
       </c>
@@ -3099,14 +3111,14 @@
       </c>
       <c r="H66" s="17"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="44" t="s">
+    <row r="67" spans="1:8">
+      <c r="A67" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="44"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
+      <c r="B67" s="84"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="84"/>
       <c r="F67" s="17" t="s">
         <v>12</v>
       </c>
@@ -3115,14 +3127,14 @@
       </c>
       <c r="H67" s="17"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="44" t="s">
+    <row r="68" spans="1:8">
+      <c r="A68" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="B68" s="44"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
+      <c r="B68" s="84"/>
+      <c r="C68" s="84"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="84"/>
       <c r="F68" s="17" t="s">
         <v>12</v>
       </c>
@@ -3131,14 +3143,14 @@
       </c>
       <c r="H68" s="17"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="44" t="s">
+    <row r="69" spans="1:8">
+      <c r="A69" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B69" s="44"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
+      <c r="B69" s="84"/>
+      <c r="C69" s="84"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="84"/>
       <c r="F69" s="17" t="s">
         <v>12</v>
       </c>
@@ -3147,14 +3159,14 @@
       </c>
       <c r="H69" s="17"/>
     </row>
-    <row r="70" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="44" t="s">
+    <row r="70" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A70" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="44"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
+      <c r="B70" s="84"/>
+      <c r="C70" s="84"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="84"/>
       <c r="F70" s="17" t="s">
         <v>12</v>
       </c>
@@ -3163,28 +3175,28 @@
       </c>
       <c r="H70" s="17"/>
     </row>
-    <row r="71" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="70" t="s">
+    <row r="71" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A71" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="70"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="70"/>
+      <c r="B71" s="89"/>
+      <c r="C71" s="89"/>
+      <c r="D71" s="89"/>
+      <c r="E71" s="89"/>
       <c r="F71" s="16"/>
       <c r="G71" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H71" s="16"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="44" t="s">
+    <row r="72" spans="1:8">
+      <c r="A72" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="B72" s="44"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="44"/>
+      <c r="B72" s="84"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="84"/>
       <c r="F72" s="17" t="s">
         <v>12</v>
       </c>
@@ -3193,14 +3205,14 @@
       </c>
       <c r="H72" s="17"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="44" t="s">
+    <row r="73" spans="1:8">
+      <c r="A73" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B73" s="44"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="44"/>
+      <c r="B73" s="84"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="84"/>
+      <c r="E73" s="84"/>
       <c r="F73" s="17" t="s">
         <v>12</v>
       </c>
@@ -3209,14 +3221,14 @@
       </c>
       <c r="H73" s="17"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="44" t="s">
+    <row r="74" spans="1:8">
+      <c r="A74" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
+      <c r="B74" s="84"/>
+      <c r="C74" s="84"/>
+      <c r="D74" s="84"/>
+      <c r="E74" s="84"/>
       <c r="F74" s="17" t="s">
         <v>12</v>
       </c>
@@ -3225,14 +3237,14 @@
       </c>
       <c r="H74" s="17"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="44" t="s">
+    <row r="75" spans="1:8">
+      <c r="A75" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="B75" s="44"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
+      <c r="B75" s="84"/>
+      <c r="C75" s="84"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="84"/>
       <c r="F75" s="17" t="s">
         <v>12</v>
       </c>
@@ -3241,28 +3253,28 @@
       </c>
       <c r="H75" s="17"/>
     </row>
-    <row r="76" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="70" t="s">
+    <row r="76" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A76" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="B76" s="70"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="70"/>
+      <c r="B76" s="89"/>
+      <c r="C76" s="89"/>
+      <c r="D76" s="89"/>
+      <c r="E76" s="89"/>
       <c r="F76" s="16"/>
       <c r="G76" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H76" s="16"/>
     </row>
-    <row r="77" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="44" t="s">
+    <row r="77" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A77" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="B77" s="44"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="44"/>
+      <c r="B77" s="84"/>
+      <c r="C77" s="84"/>
+      <c r="D77" s="84"/>
+      <c r="E77" s="84"/>
       <c r="F77" s="17" t="s">
         <v>12</v>
       </c>
@@ -3271,14 +3283,14 @@
       </c>
       <c r="H77" s="17"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="44" t="s">
+    <row r="78" spans="1:8">
+      <c r="A78" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="B78" s="44"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="44"/>
+      <c r="B78" s="84"/>
+      <c r="C78" s="84"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="84"/>
       <c r="F78" s="17" t="s">
         <v>12</v>
       </c>
@@ -3287,14 +3299,14 @@
       </c>
       <c r="H78" s="17"/>
     </row>
-    <row r="79" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="44" t="s">
+    <row r="79" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A79" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="B79" s="44"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="44"/>
+      <c r="B79" s="84"/>
+      <c r="C79" s="84"/>
+      <c r="D79" s="84"/>
+      <c r="E79" s="84"/>
       <c r="F79" s="17" t="s">
         <v>12</v>
       </c>
@@ -3303,14 +3315,14 @@
       </c>
       <c r="H79" s="17"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="44" t="s">
+    <row r="80" spans="1:8">
+      <c r="A80" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="B80" s="44"/>
-      <c r="C80" s="44"/>
-      <c r="D80" s="44"/>
-      <c r="E80" s="44"/>
+      <c r="B80" s="84"/>
+      <c r="C80" s="84"/>
+      <c r="D80" s="84"/>
+      <c r="E80" s="84"/>
       <c r="F80" s="17" t="s">
         <v>12</v>
       </c>
@@ -3319,14 +3331,14 @@
       </c>
       <c r="H80" s="17"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="44" t="s">
+    <row r="81" spans="1:8">
+      <c r="A81" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="B81" s="44"/>
-      <c r="C81" s="44"/>
-      <c r="D81" s="44"/>
-      <c r="E81" s="44"/>
+      <c r="B81" s="84"/>
+      <c r="C81" s="84"/>
+      <c r="D81" s="84"/>
+      <c r="E81" s="84"/>
       <c r="F81" s="17" t="s">
         <v>12</v>
       </c>
@@ -3335,14 +3347,14 @@
       </c>
       <c r="H81" s="17"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="44" t="s">
+    <row r="82" spans="1:8">
+      <c r="A82" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="B82" s="44"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="44"/>
+      <c r="B82" s="84"/>
+      <c r="C82" s="84"/>
+      <c r="D82" s="84"/>
+      <c r="E82" s="84"/>
       <c r="F82" s="17" t="s">
         <v>12</v>
       </c>
@@ -3351,14 +3363,14 @@
       </c>
       <c r="H82" s="17"/>
     </row>
-    <row r="83" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="44" t="s">
+    <row r="83" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A83" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="B83" s="44"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="44"/>
-      <c r="E83" s="44"/>
+      <c r="B83" s="84"/>
+      <c r="C83" s="84"/>
+      <c r="D83" s="84"/>
+      <c r="E83" s="84"/>
       <c r="F83" s="17" t="s">
         <v>12</v>
       </c>
@@ -3367,14 +3379,14 @@
       </c>
       <c r="H83" s="17"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="44" t="s">
+    <row r="84" spans="1:8">
+      <c r="A84" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="B84" s="44"/>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="44"/>
+      <c r="B84" s="84"/>
+      <c r="C84" s="84"/>
+      <c r="D84" s="84"/>
+      <c r="E84" s="84"/>
       <c r="F84" s="17" t="s">
         <v>12</v>
       </c>
@@ -3383,14 +3395,14 @@
       </c>
       <c r="H84" s="17"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="44" t="s">
+    <row r="85" spans="1:8">
+      <c r="A85" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="B85" s="44"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="44"/>
+      <c r="B85" s="84"/>
+      <c r="C85" s="84"/>
+      <c r="D85" s="84"/>
+      <c r="E85" s="84"/>
       <c r="F85" s="17" t="s">
         <v>12</v>
       </c>
@@ -3399,14 +3411,14 @@
       </c>
       <c r="H85" s="17"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="44" t="s">
+    <row r="86" spans="1:8">
+      <c r="A86" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="44"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="44"/>
+      <c r="B86" s="84"/>
+      <c r="C86" s="84"/>
+      <c r="D86" s="84"/>
+      <c r="E86" s="84"/>
       <c r="F86" s="17" t="s">
         <v>12</v>
       </c>
@@ -3415,14 +3427,14 @@
       </c>
       <c r="H86" s="17"/>
     </row>
-    <row r="87" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="44" t="s">
+    <row r="87" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A87" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="B87" s="44"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="44"/>
+      <c r="B87" s="84"/>
+      <c r="C87" s="84"/>
+      <c r="D87" s="84"/>
+      <c r="E87" s="84"/>
       <c r="F87" s="17" t="s">
         <v>12</v>
       </c>
@@ -3431,14 +3443,14 @@
       </c>
       <c r="H87" s="17"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="44" t="s">
+    <row r="88" spans="1:8">
+      <c r="A88" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="B88" s="44"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="44"/>
+      <c r="B88" s="84"/>
+      <c r="C88" s="84"/>
+      <c r="D88" s="84"/>
+      <c r="E88" s="84"/>
       <c r="F88" s="17" t="s">
         <v>12</v>
       </c>
@@ -3447,124 +3459,124 @@
       </c>
       <c r="H88" s="17"/>
     </row>
-    <row r="89" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" ht="16.5" customHeight="1">
       <c r="A89" s="29"/>
       <c r="B89" s="29"/>
-      <c r="C89" s="38" t="s">
+      <c r="C89" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="D89" s="38"/>
-      <c r="E89" s="38"/>
-      <c r="F89" s="38"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="38"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D89" s="87"/>
+      <c r="E89" s="87"/>
+      <c r="F89" s="87"/>
+      <c r="G89" s="87"/>
+      <c r="H89" s="87"/>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="29"/>
       <c r="B90" s="29"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="39"/>
-      <c r="F90" s="39"/>
-      <c r="G90" s="39"/>
-      <c r="H90" s="39"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="66" t="s">
+      <c r="C90" s="88"/>
+      <c r="D90" s="88"/>
+      <c r="E90" s="88"/>
+      <c r="F90" s="88"/>
+      <c r="G90" s="88"/>
+      <c r="H90" s="88"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="67"/>
-      <c r="C91" s="68" t="str">
+      <c r="B91" s="44"/>
+      <c r="C91" s="74" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D91" s="69"/>
-      <c r="E91" s="69"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="62"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="66" t="s">
+      <c r="D91" s="75"/>
+      <c r="E91" s="75"/>
+      <c r="F91" s="76"/>
+      <c r="G91" s="76"/>
+      <c r="H91" s="77"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="B92" s="67"/>
-      <c r="C92" s="68" t="str">
+      <c r="B92" s="44"/>
+      <c r="C92" s="74" t="str">
         <f>$C$4</f>
         <v>CMFP190801</v>
       </c>
-      <c r="D92" s="69"/>
-      <c r="E92" s="69"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="62"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="66" t="s">
+      <c r="D92" s="75"/>
+      <c r="E92" s="75"/>
+      <c r="F92" s="76"/>
+      <c r="G92" s="76"/>
+      <c r="H92" s="77"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B93" s="67"/>
-      <c r="C93" s="68" t="str">
+      <c r="B93" s="44"/>
+      <c r="C93" s="74" t="str">
         <f>$C$5</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D93" s="69"/>
-      <c r="E93" s="69"/>
-      <c r="F93" s="36"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="62"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="66" t="s">
+      <c r="D93" s="75"/>
+      <c r="E93" s="75"/>
+      <c r="F93" s="76"/>
+      <c r="G93" s="76"/>
+      <c r="H93" s="77"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B94" s="67"/>
-      <c r="C94" s="68" t="str">
+      <c r="B94" s="44"/>
+      <c r="C94" s="74" t="str">
         <f>$C$6</f>
         <v>Halton Korea Ltd.</v>
       </c>
-      <c r="D94" s="69"/>
-      <c r="E94" s="69"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="62"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="66" t="s">
+      <c r="D94" s="75"/>
+      <c r="E94" s="75"/>
+      <c r="F94" s="76"/>
+      <c r="G94" s="76"/>
+      <c r="H94" s="77"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B95" s="67"/>
-      <c r="C95" s="68" t="str">
+      <c r="B95" s="44"/>
+      <c r="C95" s="74" t="str">
         <f>$C$7</f>
         <v>B1-B4</v>
       </c>
-      <c r="D95" s="69"/>
-      <c r="E95" s="69"/>
-      <c r="F95" s="36"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="62"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="53" t="s">
+      <c r="D95" s="75"/>
+      <c r="E95" s="75"/>
+      <c r="F95" s="76"/>
+      <c r="G95" s="76"/>
+      <c r="H95" s="77"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B96" s="71"/>
-      <c r="C96" s="72" t="str">
+      <c r="B96" s="91"/>
+      <c r="C96" s="92" t="str">
         <f>$C$8</f>
         <v>KCJ</v>
       </c>
-      <c r="D96" s="73"/>
-      <c r="E96" s="73"/>
-      <c r="F96" s="74"/>
-      <c r="G96" s="74"/>
-      <c r="H96" s="75"/>
-    </row>
-    <row r="97" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="A97" s="76"/>
-      <c r="B97" s="76"/>
-      <c r="C97" s="76"/>
-      <c r="D97" s="76"/>
-      <c r="E97" s="76"/>
+      <c r="D96" s="93"/>
+      <c r="E96" s="93"/>
+      <c r="F96" s="94"/>
+      <c r="G96" s="94"/>
+      <c r="H96" s="95"/>
+    </row>
+    <row r="97" spans="1:8" ht="33">
+      <c r="A97" s="83"/>
+      <c r="B97" s="83"/>
+      <c r="C97" s="83"/>
+      <c r="D97" s="83"/>
+      <c r="E97" s="83"/>
       <c r="F97" s="31" t="s">
         <v>55</v>
       </c>
@@ -3575,28 +3587,28 @@
         <v>57</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="70" t="s">
+    <row r="98" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A98" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="B98" s="70"/>
-      <c r="C98" s="70"/>
-      <c r="D98" s="70"/>
-      <c r="E98" s="70"/>
+      <c r="B98" s="89"/>
+      <c r="C98" s="89"/>
+      <c r="D98" s="89"/>
+      <c r="E98" s="89"/>
       <c r="F98" s="16"/>
       <c r="G98" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H98" s="16"/>
     </row>
-    <row r="99" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="44" t="s">
+    <row r="99" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A99" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="B99" s="44"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="44"/>
-      <c r="E99" s="44"/>
+      <c r="B99" s="84"/>
+      <c r="C99" s="84"/>
+      <c r="D99" s="84"/>
+      <c r="E99" s="84"/>
       <c r="F99" s="17" t="s">
         <v>12</v>
       </c>
@@ -3605,14 +3617,14 @@
       </c>
       <c r="H99" s="17"/>
     </row>
-    <row r="100" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="44" t="s">
+    <row r="100" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A100" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="B100" s="44"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="44"/>
-      <c r="E100" s="44"/>
+      <c r="B100" s="84"/>
+      <c r="C100" s="84"/>
+      <c r="D100" s="84"/>
+      <c r="E100" s="84"/>
       <c r="F100" s="17" t="s">
         <v>12</v>
       </c>
@@ -3621,14 +3633,14 @@
       </c>
       <c r="H100" s="17"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="44" t="s">
+    <row r="101" spans="1:8">
+      <c r="A101" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="B101" s="44"/>
-      <c r="C101" s="44"/>
-      <c r="D101" s="44"/>
-      <c r="E101" s="44"/>
+      <c r="B101" s="84"/>
+      <c r="C101" s="84"/>
+      <c r="D101" s="84"/>
+      <c r="E101" s="84"/>
       <c r="F101" s="17" t="s">
         <v>12</v>
       </c>
@@ -3637,28 +3649,28 @@
       </c>
       <c r="H101" s="17"/>
     </row>
-    <row r="102" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="70" t="s">
+    <row r="102" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A102" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="B102" s="70"/>
-      <c r="C102" s="70"/>
-      <c r="D102" s="70"/>
-      <c r="E102" s="70"/>
+      <c r="B102" s="89"/>
+      <c r="C102" s="89"/>
+      <c r="D102" s="89"/>
+      <c r="E102" s="89"/>
       <c r="F102" s="16"/>
       <c r="G102" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H102" s="16"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="44" t="s">
+    <row r="103" spans="1:8">
+      <c r="A103" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="B103" s="44"/>
-      <c r="C103" s="44"/>
-      <c r="D103" s="44"/>
-      <c r="E103" s="44"/>
+      <c r="B103" s="84"/>
+      <c r="C103" s="84"/>
+      <c r="D103" s="84"/>
+      <c r="E103" s="84"/>
       <c r="F103" s="17" t="s">
         <v>12</v>
       </c>
@@ -3667,14 +3679,14 @@
       </c>
       <c r="H103" s="17"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="44" t="s">
+    <row r="104" spans="1:8">
+      <c r="A104" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="B104" s="44"/>
-      <c r="C104" s="44"/>
-      <c r="D104" s="44"/>
-      <c r="E104" s="44"/>
+      <c r="B104" s="84"/>
+      <c r="C104" s="84"/>
+      <c r="D104" s="84"/>
+      <c r="E104" s="84"/>
       <c r="F104" s="17" t="s">
         <v>12</v>
       </c>
@@ -3683,14 +3695,14 @@
       </c>
       <c r="H104" s="17"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="44" t="s">
+    <row r="105" spans="1:8">
+      <c r="A105" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="B105" s="44"/>
-      <c r="C105" s="44"/>
-      <c r="D105" s="44"/>
-      <c r="E105" s="44"/>
+      <c r="B105" s="84"/>
+      <c r="C105" s="84"/>
+      <c r="D105" s="84"/>
+      <c r="E105" s="84"/>
       <c r="F105" s="17" t="s">
         <v>12</v>
       </c>
@@ -3699,14 +3711,14 @@
       </c>
       <c r="H105" s="17"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="44" t="s">
+    <row r="106" spans="1:8">
+      <c r="A106" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="B106" s="44"/>
-      <c r="C106" s="44"/>
-      <c r="D106" s="44"/>
-      <c r="E106" s="44"/>
+      <c r="B106" s="84"/>
+      <c r="C106" s="84"/>
+      <c r="D106" s="84"/>
+      <c r="E106" s="84"/>
       <c r="F106" s="17" t="s">
         <v>12</v>
       </c>
@@ -3715,14 +3727,14 @@
       </c>
       <c r="H106" s="17"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="44" t="s">
+    <row r="107" spans="1:8">
+      <c r="A107" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="B107" s="44"/>
-      <c r="C107" s="44"/>
-      <c r="D107" s="44"/>
-      <c r="E107" s="44"/>
+      <c r="B107" s="84"/>
+      <c r="C107" s="84"/>
+      <c r="D107" s="84"/>
+      <c r="E107" s="84"/>
       <c r="F107" s="17" t="s">
         <v>12</v>
       </c>
@@ -3731,14 +3743,14 @@
       </c>
       <c r="H107" s="17"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="44" t="s">
+    <row r="108" spans="1:8">
+      <c r="A108" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="B108" s="44"/>
-      <c r="C108" s="44"/>
-      <c r="D108" s="44"/>
-      <c r="E108" s="44"/>
+      <c r="B108" s="84"/>
+      <c r="C108" s="84"/>
+      <c r="D108" s="84"/>
+      <c r="E108" s="84"/>
       <c r="F108" s="17" t="s">
         <v>12</v>
       </c>
@@ -3747,14 +3759,14 @@
       </c>
       <c r="H108" s="17"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="44" t="s">
+    <row r="109" spans="1:8">
+      <c r="A109" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="B109" s="44"/>
-      <c r="C109" s="44"/>
-      <c r="D109" s="44"/>
-      <c r="E109" s="44"/>
+      <c r="B109" s="84"/>
+      <c r="C109" s="84"/>
+      <c r="D109" s="84"/>
+      <c r="E109" s="84"/>
       <c r="F109" s="17" t="s">
         <v>12</v>
       </c>
@@ -3763,14 +3775,14 @@
       </c>
       <c r="H109" s="17"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="44" t="s">
+    <row r="110" spans="1:8">
+      <c r="A110" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="B110" s="44"/>
-      <c r="C110" s="44"/>
-      <c r="D110" s="44"/>
-      <c r="E110" s="44"/>
+      <c r="B110" s="84"/>
+      <c r="C110" s="84"/>
+      <c r="D110" s="84"/>
+      <c r="E110" s="84"/>
       <c r="F110" s="17" t="s">
         <v>12</v>
       </c>
@@ -3779,14 +3791,14 @@
       </c>
       <c r="H110" s="17"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="44" t="s">
+    <row r="111" spans="1:8">
+      <c r="A111" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="B111" s="44"/>
-      <c r="C111" s="44"/>
-      <c r="D111" s="44"/>
-      <c r="E111" s="44"/>
+      <c r="B111" s="84"/>
+      <c r="C111" s="84"/>
+      <c r="D111" s="84"/>
+      <c r="E111" s="84"/>
       <c r="F111" s="17" t="s">
         <v>12</v>
       </c>
@@ -3795,14 +3807,14 @@
       </c>
       <c r="H111" s="17"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="44" t="s">
+    <row r="112" spans="1:8">
+      <c r="A112" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="B112" s="44"/>
-      <c r="C112" s="44"/>
-      <c r="D112" s="44"/>
-      <c r="E112" s="44"/>
+      <c r="B112" s="84"/>
+      <c r="C112" s="84"/>
+      <c r="D112" s="84"/>
+      <c r="E112" s="84"/>
       <c r="F112" s="17" t="s">
         <v>12</v>
       </c>
@@ -3811,14 +3823,14 @@
       </c>
       <c r="H112" s="17"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="44" t="s">
+    <row r="113" spans="1:8">
+      <c r="A113" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="B113" s="44"/>
-      <c r="C113" s="44"/>
-      <c r="D113" s="44"/>
-      <c r="E113" s="44"/>
+      <c r="B113" s="84"/>
+      <c r="C113" s="84"/>
+      <c r="D113" s="84"/>
+      <c r="E113" s="84"/>
       <c r="F113" s="17" t="s">
         <v>12</v>
       </c>
@@ -3827,14 +3839,14 @@
       </c>
       <c r="H113" s="17"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="44" t="s">
+    <row r="114" spans="1:8">
+      <c r="A114" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="B114" s="44"/>
-      <c r="C114" s="44"/>
-      <c r="D114" s="44"/>
-      <c r="E114" s="44"/>
+      <c r="B114" s="84"/>
+      <c r="C114" s="84"/>
+      <c r="D114" s="84"/>
+      <c r="E114" s="84"/>
       <c r="F114" s="17" t="s">
         <v>12</v>
       </c>
@@ -3843,14 +3855,14 @@
       </c>
       <c r="H114" s="17"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="44" t="s">
+    <row r="115" spans="1:8">
+      <c r="A115" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="B115" s="44"/>
-      <c r="C115" s="44"/>
-      <c r="D115" s="44"/>
-      <c r="E115" s="44"/>
+      <c r="B115" s="84"/>
+      <c r="C115" s="84"/>
+      <c r="D115" s="84"/>
+      <c r="E115" s="84"/>
       <c r="F115" s="17" t="s">
         <v>12</v>
       </c>
@@ -3859,14 +3871,14 @@
       </c>
       <c r="H115" s="17"/>
     </row>
-    <row r="116" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="44" t="s">
+    <row r="116" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A116" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="B116" s="44"/>
-      <c r="C116" s="44"/>
-      <c r="D116" s="44"/>
-      <c r="E116" s="44"/>
+      <c r="B116" s="84"/>
+      <c r="C116" s="84"/>
+      <c r="D116" s="84"/>
+      <c r="E116" s="84"/>
       <c r="F116" s="17" t="s">
         <v>12</v>
       </c>
@@ -3875,14 +3887,14 @@
       </c>
       <c r="H116" s="17"/>
     </row>
-    <row r="117" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="44" t="s">
+    <row r="117" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A117" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="B117" s="44"/>
-      <c r="C117" s="44"/>
-      <c r="D117" s="44"/>
-      <c r="E117" s="44"/>
+      <c r="B117" s="84"/>
+      <c r="C117" s="84"/>
+      <c r="D117" s="84"/>
+      <c r="E117" s="84"/>
       <c r="F117" s="17" t="s">
         <v>12</v>
       </c>
@@ -3891,14 +3903,14 @@
       </c>
       <c r="H117" s="17"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="44" t="s">
+    <row r="118" spans="1:8">
+      <c r="A118" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="B118" s="44"/>
-      <c r="C118" s="44"/>
-      <c r="D118" s="44"/>
-      <c r="E118" s="44"/>
+      <c r="B118" s="84"/>
+      <c r="C118" s="84"/>
+      <c r="D118" s="84"/>
+      <c r="E118" s="84"/>
       <c r="F118" s="17" t="s">
         <v>12</v>
       </c>
@@ -3907,14 +3919,14 @@
       </c>
       <c r="H118" s="17"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="44" t="s">
+    <row r="119" spans="1:8">
+      <c r="A119" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="B119" s="44"/>
-      <c r="C119" s="44"/>
-      <c r="D119" s="44"/>
-      <c r="E119" s="44"/>
+      <c r="B119" s="84"/>
+      <c r="C119" s="84"/>
+      <c r="D119" s="84"/>
+      <c r="E119" s="84"/>
       <c r="F119" s="17" t="s">
         <v>12</v>
       </c>
@@ -3923,14 +3935,14 @@
       </c>
       <c r="H119" s="17"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="44" t="s">
+    <row r="120" spans="1:8">
+      <c r="A120" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="B120" s="44"/>
-      <c r="C120" s="44"/>
-      <c r="D120" s="44"/>
-      <c r="E120" s="44"/>
+      <c r="B120" s="84"/>
+      <c r="C120" s="84"/>
+      <c r="D120" s="84"/>
+      <c r="E120" s="84"/>
       <c r="F120" s="17" t="s">
         <v>12</v>
       </c>
@@ -3939,14 +3951,14 @@
       </c>
       <c r="H120" s="17"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="44" t="s">
+    <row r="121" spans="1:8">
+      <c r="A121" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="B121" s="44"/>
-      <c r="C121" s="44"/>
-      <c r="D121" s="44"/>
-      <c r="E121" s="44"/>
+      <c r="B121" s="84"/>
+      <c r="C121" s="84"/>
+      <c r="D121" s="84"/>
+      <c r="E121" s="84"/>
       <c r="F121" s="17" t="s">
         <v>12</v>
       </c>
@@ -3955,14 +3967,14 @@
       </c>
       <c r="H121" s="17"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="44" t="s">
+    <row r="122" spans="1:8">
+      <c r="A122" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="B122" s="44"/>
-      <c r="C122" s="44"/>
-      <c r="D122" s="44"/>
-      <c r="E122" s="44"/>
+      <c r="B122" s="84"/>
+      <c r="C122" s="84"/>
+      <c r="D122" s="84"/>
+      <c r="E122" s="84"/>
       <c r="F122" s="17" t="s">
         <v>12</v>
       </c>
@@ -3971,14 +3983,14 @@
       </c>
       <c r="H122" s="17"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="44" t="s">
+    <row r="123" spans="1:8">
+      <c r="A123" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="B123" s="44"/>
-      <c r="C123" s="44"/>
-      <c r="D123" s="44"/>
-      <c r="E123" s="44"/>
+      <c r="B123" s="84"/>
+      <c r="C123" s="84"/>
+      <c r="D123" s="84"/>
+      <c r="E123" s="84"/>
       <c r="F123" s="17" t="s">
         <v>12</v>
       </c>
@@ -3987,14 +3999,14 @@
       </c>
       <c r="H123" s="17"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="44" t="s">
+    <row r="124" spans="1:8">
+      <c r="A124" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="B124" s="44"/>
-      <c r="C124" s="44"/>
-      <c r="D124" s="44"/>
-      <c r="E124" s="44"/>
+      <c r="B124" s="84"/>
+      <c r="C124" s="84"/>
+      <c r="D124" s="84"/>
+      <c r="E124" s="84"/>
       <c r="F124" s="17" t="s">
         <v>12</v>
       </c>
@@ -4003,14 +4015,14 @@
       </c>
       <c r="H124" s="17"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="44" t="s">
+    <row r="125" spans="1:8">
+      <c r="A125" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="B125" s="44"/>
-      <c r="C125" s="44"/>
-      <c r="D125" s="44"/>
-      <c r="E125" s="44"/>
+      <c r="B125" s="84"/>
+      <c r="C125" s="84"/>
+      <c r="D125" s="84"/>
+      <c r="E125" s="84"/>
       <c r="F125" s="17" t="s">
         <v>12</v>
       </c>
@@ -4019,14 +4031,14 @@
       </c>
       <c r="H125" s="17"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="44" t="s">
+    <row r="126" spans="1:8">
+      <c r="A126" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="B126" s="44"/>
-      <c r="C126" s="44"/>
-      <c r="D126" s="44"/>
-      <c r="E126" s="44"/>
+      <c r="B126" s="84"/>
+      <c r="C126" s="84"/>
+      <c r="D126" s="84"/>
+      <c r="E126" s="84"/>
       <c r="F126" s="17" t="s">
         <v>12</v>
       </c>
@@ -4035,14 +4047,14 @@
       </c>
       <c r="H126" s="17"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="44" t="s">
+    <row r="127" spans="1:8">
+      <c r="A127" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="B127" s="44"/>
-      <c r="C127" s="44"/>
-      <c r="D127" s="44"/>
-      <c r="E127" s="44"/>
+      <c r="B127" s="84"/>
+      <c r="C127" s="84"/>
+      <c r="D127" s="84"/>
+      <c r="E127" s="84"/>
       <c r="F127" s="17" t="s">
         <v>12</v>
       </c>
@@ -4051,14 +4063,14 @@
       </c>
       <c r="H127" s="17"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="44" t="s">
+    <row r="128" spans="1:8">
+      <c r="A128" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="B128" s="44"/>
-      <c r="C128" s="44"/>
-      <c r="D128" s="44"/>
-      <c r="E128" s="44"/>
+      <c r="B128" s="84"/>
+      <c r="C128" s="84"/>
+      <c r="D128" s="84"/>
+      <c r="E128" s="84"/>
       <c r="F128" s="17" t="s">
         <v>12</v>
       </c>
@@ -4067,14 +4079,14 @@
       </c>
       <c r="H128" s="17"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="44" t="s">
+    <row r="129" spans="1:8">
+      <c r="A129" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="B129" s="44"/>
-      <c r="C129" s="44"/>
-      <c r="D129" s="44"/>
-      <c r="E129" s="44"/>
+      <c r="B129" s="84"/>
+      <c r="C129" s="84"/>
+      <c r="D129" s="84"/>
+      <c r="E129" s="84"/>
       <c r="F129" s="17" t="s">
         <v>12</v>
       </c>
@@ -4083,14 +4095,14 @@
       </c>
       <c r="H129" s="17"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="44" t="s">
+    <row r="130" spans="1:8">
+      <c r="A130" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="B130" s="44"/>
-      <c r="C130" s="44"/>
-      <c r="D130" s="44"/>
-      <c r="E130" s="44"/>
+      <c r="B130" s="84"/>
+      <c r="C130" s="84"/>
+      <c r="D130" s="84"/>
+      <c r="E130" s="84"/>
       <c r="F130" s="17" t="s">
         <v>12</v>
       </c>
@@ -4099,131 +4111,131 @@
       </c>
       <c r="H130" s="17"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="77" t="s">
+    <row r="131" spans="1:8">
+      <c r="A131" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="B131" s="77"/>
-      <c r="C131" s="78"/>
-      <c r="D131" s="78"/>
-      <c r="E131" s="78"/>
-      <c r="F131" s="78"/>
-      <c r="G131" s="78"/>
-      <c r="H131" s="78"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B131" s="85"/>
+      <c r="C131" s="86"/>
+      <c r="D131" s="86"/>
+      <c r="E131" s="86"/>
+      <c r="F131" s="86"/>
+      <c r="G131" s="86"/>
+      <c r="H131" s="86"/>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="29"/>
       <c r="B132" s="29"/>
-      <c r="C132" s="38" t="s">
+      <c r="C132" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="D132" s="38"/>
-      <c r="E132" s="38"/>
-      <c r="F132" s="38"/>
-      <c r="G132" s="38"/>
-      <c r="H132" s="38"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D132" s="87"/>
+      <c r="E132" s="87"/>
+      <c r="F132" s="87"/>
+      <c r="G132" s="87"/>
+      <c r="H132" s="87"/>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="29"/>
       <c r="B133" s="29"/>
-      <c r="C133" s="39"/>
-      <c r="D133" s="39"/>
-      <c r="E133" s="39"/>
-      <c r="F133" s="39"/>
-      <c r="G133" s="39"/>
-      <c r="H133" s="39"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="66" t="s">
+      <c r="C133" s="88"/>
+      <c r="D133" s="88"/>
+      <c r="E133" s="88"/>
+      <c r="F133" s="88"/>
+      <c r="G133" s="88"/>
+      <c r="H133" s="88"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B134" s="67"/>
-      <c r="C134" s="68" t="str">
+      <c r="B134" s="44"/>
+      <c r="C134" s="74" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D134" s="69"/>
-      <c r="E134" s="69"/>
-      <c r="F134" s="36"/>
-      <c r="G134" s="36"/>
-      <c r="H134" s="62"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="66" t="s">
+      <c r="D134" s="75"/>
+      <c r="E134" s="75"/>
+      <c r="F134" s="76"/>
+      <c r="G134" s="76"/>
+      <c r="H134" s="77"/>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B135" s="67"/>
-      <c r="C135" s="68" t="str">
+      <c r="B135" s="44"/>
+      <c r="C135" s="74" t="str">
         <f>$C$4</f>
         <v>CMFP190801</v>
       </c>
-      <c r="D135" s="69"/>
-      <c r="E135" s="69"/>
-      <c r="F135" s="36"/>
-      <c r="G135" s="36"/>
-      <c r="H135" s="62"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="66" t="s">
+      <c r="D135" s="75"/>
+      <c r="E135" s="75"/>
+      <c r="F135" s="76"/>
+      <c r="G135" s="76"/>
+      <c r="H135" s="77"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B136" s="67"/>
-      <c r="C136" s="68" t="str">
+      <c r="B136" s="44"/>
+      <c r="C136" s="74" t="str">
         <f>$C$5</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D136" s="69"/>
-      <c r="E136" s="69"/>
-      <c r="F136" s="36"/>
-      <c r="G136" s="36"/>
-      <c r="H136" s="62"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="66" t="s">
+      <c r="D136" s="75"/>
+      <c r="E136" s="75"/>
+      <c r="F136" s="76"/>
+      <c r="G136" s="76"/>
+      <c r="H136" s="77"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B137" s="67"/>
-      <c r="C137" s="68" t="str">
+      <c r="B137" s="44"/>
+      <c r="C137" s="74" t="str">
         <f>$C$6</f>
         <v>Halton Korea Ltd.</v>
       </c>
-      <c r="D137" s="69"/>
-      <c r="E137" s="69"/>
-      <c r="F137" s="36"/>
-      <c r="G137" s="36"/>
-      <c r="H137" s="62"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="66" t="s">
+      <c r="D137" s="75"/>
+      <c r="E137" s="75"/>
+      <c r="F137" s="76"/>
+      <c r="G137" s="76"/>
+      <c r="H137" s="77"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B138" s="67"/>
-      <c r="C138" s="68" t="str">
+      <c r="B138" s="44"/>
+      <c r="C138" s="74" t="str">
         <f>$C$7</f>
         <v>B1-B4</v>
       </c>
-      <c r="D138" s="69"/>
-      <c r="E138" s="69"/>
-      <c r="F138" s="36"/>
-      <c r="G138" s="36"/>
-      <c r="H138" s="62"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="66" t="s">
+      <c r="D138" s="75"/>
+      <c r="E138" s="75"/>
+      <c r="F138" s="76"/>
+      <c r="G138" s="76"/>
+      <c r="H138" s="77"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B139" s="67"/>
-      <c r="C139" s="68" t="str">
+      <c r="B139" s="44"/>
+      <c r="C139" s="74" t="str">
         <f>$C$8</f>
         <v>KCJ</v>
       </c>
-      <c r="D139" s="69"/>
-      <c r="E139" s="69"/>
-      <c r="F139" s="36"/>
-      <c r="G139" s="52"/>
+      <c r="D139" s="75"/>
+      <c r="E139" s="75"/>
+      <c r="F139" s="76"/>
+      <c r="G139" s="78"/>
       <c r="H139" s="79"/>
     </row>
-    <row r="140" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="15.95" customHeight="1">
       <c r="A140" s="80" t="s">
         <v>121</v>
       </c>
@@ -4234,1189 +4246,1221 @@
       <c r="D140" s="82"/>
       <c r="E140" s="82"/>
       <c r="F140" s="18"/>
-      <c r="G140" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="H140" s="76"/>
-    </row>
-    <row r="141" spans="1:8" s="20" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="87" t="s">
+      <c r="G140" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H140" s="83"/>
+    </row>
+    <row r="141" spans="1:8" s="20" customFormat="1" ht="26.1" customHeight="1">
+      <c r="A141" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="B141" s="88"/>
-      <c r="C141" s="88"/>
-      <c r="D141" s="88"/>
-      <c r="E141" s="89"/>
+      <c r="B141" s="71"/>
+      <c r="C141" s="71"/>
+      <c r="D141" s="71"/>
+      <c r="E141" s="72"/>
       <c r="F141" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G141" s="90" t="s">
+      <c r="G141" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="H141" s="90"/>
-    </row>
-    <row r="142" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="83" t="s">
+      <c r="H141" s="73"/>
+    </row>
+    <row r="142" spans="1:8" ht="12.6" customHeight="1">
+      <c r="A142" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="B142" s="84"/>
-      <c r="C142" s="84"/>
-      <c r="D142" s="84"/>
-      <c r="E142" s="85"/>
+      <c r="B142" s="59"/>
+      <c r="C142" s="59"/>
+      <c r="D142" s="59"/>
+      <c r="E142" s="60"/>
       <c r="F142" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G142" s="86" t="s">
+      <c r="G142" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="H142" s="86"/>
-    </row>
-    <row r="143" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="83" t="s">
+      <c r="H142" s="61"/>
+    </row>
+    <row r="143" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A143" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="B143" s="84"/>
-      <c r="C143" s="84"/>
-      <c r="D143" s="84"/>
-      <c r="E143" s="85"/>
+      <c r="B143" s="59"/>
+      <c r="C143" s="59"/>
+      <c r="D143" s="59"/>
+      <c r="E143" s="60"/>
       <c r="F143" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G143" s="86" t="s">
+      <c r="G143" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="H143" s="86"/>
-    </row>
-    <row r="144" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="83" t="s">
+      <c r="H143" s="61"/>
+    </row>
+    <row r="144" spans="1:8" ht="12.6" customHeight="1">
+      <c r="A144" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="B144" s="84"/>
-      <c r="C144" s="84"/>
-      <c r="D144" s="84"/>
-      <c r="E144" s="85"/>
+      <c r="B144" s="59"/>
+      <c r="C144" s="59"/>
+      <c r="D144" s="59"/>
+      <c r="E144" s="60"/>
       <c r="F144" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G144" s="86" t="s">
+      <c r="G144" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="H144" s="86"/>
-    </row>
-    <row r="145" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="83" t="s">
+      <c r="H144" s="61"/>
+    </row>
+    <row r="145" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A145" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="B145" s="84"/>
-      <c r="C145" s="84"/>
-      <c r="D145" s="84"/>
-      <c r="E145" s="85"/>
+      <c r="B145" s="59"/>
+      <c r="C145" s="59"/>
+      <c r="D145" s="59"/>
+      <c r="E145" s="60"/>
       <c r="F145" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G145" s="86" t="s">
+      <c r="G145" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="H145" s="86"/>
-    </row>
-    <row r="146" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="83" t="s">
+      <c r="H145" s="61"/>
+    </row>
+    <row r="146" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A146" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="B146" s="84"/>
-      <c r="C146" s="84"/>
-      <c r="D146" s="84"/>
-      <c r="E146" s="85"/>
+      <c r="B146" s="59"/>
+      <c r="C146" s="59"/>
+      <c r="D146" s="59"/>
+      <c r="E146" s="60"/>
       <c r="F146" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G146" s="86" t="s">
+      <c r="G146" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="H146" s="86"/>
-    </row>
-    <row r="147" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="83" t="s">
+      <c r="H146" s="61"/>
+    </row>
+    <row r="147" spans="1:8" ht="23.1" customHeight="1">
+      <c r="A147" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="B147" s="84"/>
-      <c r="C147" s="84"/>
-      <c r="D147" s="84"/>
-      <c r="E147" s="85"/>
+      <c r="B147" s="59"/>
+      <c r="C147" s="59"/>
+      <c r="D147" s="59"/>
+      <c r="E147" s="60"/>
       <c r="F147" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G147" s="86" t="s">
+      <c r="G147" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="H147" s="86"/>
-    </row>
-    <row r="148" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="83" t="s">
+      <c r="H147" s="61"/>
+    </row>
+    <row r="148" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A148" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="B148" s="84"/>
-      <c r="C148" s="84"/>
-      <c r="D148" s="84"/>
-      <c r="E148" s="85"/>
+      <c r="B148" s="59"/>
+      <c r="C148" s="59"/>
+      <c r="D148" s="59"/>
+      <c r="E148" s="60"/>
       <c r="F148" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G148" s="86" t="s">
+      <c r="G148" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="H148" s="86"/>
-    </row>
-    <row r="149" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="83" t="s">
+      <c r="H148" s="61"/>
+    </row>
+    <row r="149" spans="1:8" ht="20.85" customHeight="1">
+      <c r="A149" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="B149" s="59"/>
+      <c r="C149" s="59"/>
+      <c r="D149" s="59"/>
+      <c r="E149" s="60"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="H149" s="61"/>
+    </row>
+    <row r="150" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A150" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="B149" s="84"/>
-      <c r="C149" s="84"/>
-      <c r="D149" s="84"/>
-      <c r="E149" s="85"/>
-      <c r="F149" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G149" s="86" t="s">
+      <c r="B150" s="59"/>
+      <c r="C150" s="59"/>
+      <c r="D150" s="59"/>
+      <c r="E150" s="60"/>
+      <c r="F150" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G150" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="H149" s="86"/>
-    </row>
-    <row r="150" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="83" t="s">
+      <c r="H150" s="61"/>
+    </row>
+    <row r="151" spans="1:8" ht="23.1" customHeight="1">
+      <c r="A151" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="B150" s="84"/>
-      <c r="C150" s="84"/>
-      <c r="D150" s="84"/>
-      <c r="E150" s="85"/>
-      <c r="F150" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G150" s="86" t="s">
+      <c r="B151" s="59"/>
+      <c r="C151" s="59"/>
+      <c r="D151" s="59"/>
+      <c r="E151" s="60"/>
+      <c r="F151" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G151" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="H150" s="86"/>
-    </row>
-    <row r="151" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="83" t="s">
+      <c r="H151" s="61"/>
+    </row>
+    <row r="152" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A152" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="B151" s="84"/>
-      <c r="C151" s="84"/>
-      <c r="D151" s="84"/>
-      <c r="E151" s="85"/>
-      <c r="F151" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G151" s="86" t="s">
+      <c r="B152" s="59"/>
+      <c r="C152" s="59"/>
+      <c r="D152" s="59"/>
+      <c r="E152" s="60"/>
+      <c r="F152" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="H151" s="86"/>
-    </row>
-    <row r="152" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="83" t="s">
+      <c r="H152" s="61"/>
+    </row>
+    <row r="153" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A153" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="B152" s="84"/>
-      <c r="C152" s="84"/>
-      <c r="D152" s="84"/>
-      <c r="E152" s="85"/>
-      <c r="F152" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G152" s="86" t="s">
+      <c r="B153" s="59"/>
+      <c r="C153" s="59"/>
+      <c r="D153" s="59"/>
+      <c r="E153" s="60"/>
+      <c r="F153" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G153" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="H152" s="86"/>
-    </row>
-    <row r="153" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="83" t="s">
+      <c r="H153" s="61"/>
+    </row>
+    <row r="154" spans="1:8" ht="12.6" customHeight="1">
+      <c r="A154" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="B153" s="84"/>
-      <c r="C153" s="84"/>
-      <c r="D153" s="84"/>
-      <c r="E153" s="85"/>
-      <c r="F153" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G153" s="86" t="s">
+      <c r="B154" s="59"/>
+      <c r="C154" s="59"/>
+      <c r="D154" s="59"/>
+      <c r="E154" s="60"/>
+      <c r="F154" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="H153" s="86"/>
-    </row>
-    <row r="154" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="83" t="s">
+      <c r="H154" s="61"/>
+    </row>
+    <row r="155" spans="1:8" ht="12.6" customHeight="1">
+      <c r="A155" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="B154" s="84"/>
-      <c r="C154" s="84"/>
-      <c r="D154" s="84"/>
-      <c r="E154" s="85"/>
-      <c r="F154" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G154" s="86" t="s">
+      <c r="B155" s="59"/>
+      <c r="C155" s="59"/>
+      <c r="D155" s="59"/>
+      <c r="E155" s="60"/>
+      <c r="F155" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G155" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="H154" s="86"/>
-    </row>
-    <row r="155" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="83" t="s">
+      <c r="H155" s="61"/>
+    </row>
+    <row r="156" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A156" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="B155" s="84"/>
-      <c r="C155" s="84"/>
-      <c r="D155" s="84"/>
-      <c r="E155" s="85"/>
-      <c r="F155" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G155" s="86" t="s">
+      <c r="B156" s="59"/>
+      <c r="C156" s="59"/>
+      <c r="D156" s="59"/>
+      <c r="E156" s="60"/>
+      <c r="F156" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G156" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="H155" s="86"/>
-    </row>
-    <row r="156" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="83" t="s">
+      <c r="H156" s="61"/>
+    </row>
+    <row r="157" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A157" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="B156" s="84"/>
-      <c r="C156" s="84"/>
-      <c r="D156" s="84"/>
-      <c r="E156" s="85"/>
-      <c r="F156" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G156" s="86" t="s">
+      <c r="B157" s="59"/>
+      <c r="C157" s="59"/>
+      <c r="D157" s="59"/>
+      <c r="E157" s="60"/>
+      <c r="F157" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G157" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="H156" s="86"/>
-    </row>
-    <row r="157" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="83" t="s">
+      <c r="H157" s="61"/>
+    </row>
+    <row r="158" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A158" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="B157" s="84"/>
-      <c r="C157" s="84"/>
-      <c r="D157" s="84"/>
-      <c r="E157" s="85"/>
-      <c r="F157" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G157" s="86" t="s">
+      <c r="B158" s="59"/>
+      <c r="C158" s="59"/>
+      <c r="D158" s="59"/>
+      <c r="E158" s="60"/>
+      <c r="F158" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G158" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="H157" s="86"/>
-    </row>
-    <row r="158" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="83" t="s">
+      <c r="H158" s="61"/>
+    </row>
+    <row r="159" spans="1:8" ht="23.1" customHeight="1">
+      <c r="A159" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="B158" s="84"/>
-      <c r="C158" s="84"/>
-      <c r="D158" s="84"/>
-      <c r="E158" s="85"/>
-      <c r="F158" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G158" s="86" t="s">
+      <c r="B159" s="59"/>
+      <c r="C159" s="59"/>
+      <c r="D159" s="59"/>
+      <c r="E159" s="60"/>
+      <c r="F159" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G159" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="H158" s="86"/>
-    </row>
-    <row r="159" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="83" t="s">
+      <c r="H159" s="61"/>
+    </row>
+    <row r="160" spans="1:8" ht="20.85" customHeight="1">
+      <c r="A160" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="B160" s="59"/>
+      <c r="C160" s="59"/>
+      <c r="D160" s="59"/>
+      <c r="E160" s="60"/>
+      <c r="F160" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G160" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="H160" s="61"/>
+    </row>
+    <row r="161" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A161" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="B159" s="84"/>
-      <c r="C159" s="84"/>
-      <c r="D159" s="84"/>
-      <c r="E159" s="85"/>
-      <c r="F159" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G159" s="86" t="s">
+      <c r="B161" s="59"/>
+      <c r="C161" s="59"/>
+      <c r="D161" s="59"/>
+      <c r="E161" s="60"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="H159" s="86"/>
-    </row>
-    <row r="160" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="83" t="s">
+      <c r="H161" s="61"/>
+    </row>
+    <row r="162" spans="1:8" ht="20.85" customHeight="1">
+      <c r="A162" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="B162" s="59"/>
+      <c r="C162" s="59"/>
+      <c r="D162" s="59"/>
+      <c r="E162" s="60"/>
+      <c r="F162" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G162" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="H162" s="61"/>
+    </row>
+    <row r="163" spans="1:8" ht="23.1" customHeight="1">
+      <c r="A163" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="B160" s="84"/>
-      <c r="C160" s="84"/>
-      <c r="D160" s="84"/>
-      <c r="E160" s="85"/>
-      <c r="F160" s="6"/>
-      <c r="G160" s="86" t="s">
+      <c r="B163" s="59"/>
+      <c r="C163" s="59"/>
+      <c r="D163" s="59"/>
+      <c r="E163" s="60"/>
+      <c r="F163" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G163" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="H160" s="86"/>
-    </row>
-    <row r="161" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="83" t="s">
+      <c r="H163" s="61"/>
+    </row>
+    <row r="164" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A164" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="B161" s="84"/>
-      <c r="C161" s="84"/>
-      <c r="D161" s="84"/>
-      <c r="E161" s="85"/>
-      <c r="F161" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G161" s="86" t="s">
+      <c r="B164" s="59"/>
+      <c r="C164" s="59"/>
+      <c r="D164" s="59"/>
+      <c r="E164" s="60"/>
+      <c r="F164" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G164" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="H161" s="86"/>
-    </row>
-    <row r="162" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="83" t="s">
+      <c r="H164" s="61"/>
+    </row>
+    <row r="165" spans="1:8" ht="20.85" customHeight="1">
+      <c r="A165" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="B165" s="59"/>
+      <c r="C165" s="59"/>
+      <c r="D165" s="59"/>
+      <c r="E165" s="60"/>
+      <c r="F165" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G165" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="H165" s="61"/>
+    </row>
+    <row r="166" spans="1:8" ht="12.6" customHeight="1">
+      <c r="A166" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="B162" s="84"/>
-      <c r="C162" s="84"/>
-      <c r="D162" s="84"/>
-      <c r="E162" s="85"/>
-      <c r="F162" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G162" s="86" t="s">
+      <c r="B166" s="59"/>
+      <c r="C166" s="59"/>
+      <c r="D166" s="59"/>
+      <c r="E166" s="60"/>
+      <c r="F166" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G166" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="H162" s="86"/>
-    </row>
-    <row r="163" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="83" t="s">
+      <c r="H166" s="61"/>
+    </row>
+    <row r="167" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A167" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="B163" s="84"/>
-      <c r="C163" s="84"/>
-      <c r="D163" s="84"/>
-      <c r="E163" s="85"/>
-      <c r="F163" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G163" s="86" t="s">
+      <c r="B167" s="68"/>
+      <c r="C167" s="68"/>
+      <c r="D167" s="68"/>
+      <c r="E167" s="69"/>
+      <c r="F167" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G167" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="H163" s="86"/>
-    </row>
-    <row r="164" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="83" t="s">
+      <c r="H167" s="61"/>
+    </row>
+    <row r="168" spans="1:8" ht="23.1" customHeight="1">
+      <c r="A168" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="B164" s="84"/>
-      <c r="C164" s="84"/>
-      <c r="D164" s="84"/>
-      <c r="E164" s="85"/>
-      <c r="F164" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G164" s="86" t="s">
+      <c r="B168" s="59"/>
+      <c r="C168" s="59"/>
+      <c r="D168" s="59"/>
+      <c r="E168" s="60"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="H164" s="86"/>
-    </row>
-    <row r="165" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="83" t="s">
+      <c r="H168" s="61"/>
+    </row>
+    <row r="169" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A169" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="B165" s="84"/>
-      <c r="C165" s="84"/>
-      <c r="D165" s="84"/>
-      <c r="E165" s="85"/>
-      <c r="F165" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G165" s="86" t="s">
+      <c r="B169" s="59"/>
+      <c r="C169" s="59"/>
+      <c r="D169" s="59"/>
+      <c r="E169" s="60"/>
+      <c r="F169" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G169" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="H165" s="86"/>
-    </row>
-    <row r="166" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="91" t="s">
+      <c r="H169" s="61"/>
+    </row>
+    <row r="170" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A170" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="B170" s="59"/>
+      <c r="C170" s="59"/>
+      <c r="D170" s="59"/>
+      <c r="E170" s="60"/>
+      <c r="F170" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="B166" s="92"/>
-      <c r="C166" s="92"/>
-      <c r="D166" s="92"/>
-      <c r="E166" s="93"/>
-      <c r="F166" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G166" s="86" t="s">
+      <c r="G170" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="H166" s="86"/>
-    </row>
-    <row r="167" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="83" t="s">
+      <c r="H170" s="61"/>
+    </row>
+    <row r="171" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A171" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="B171" s="59"/>
+      <c r="C171" s="59"/>
+      <c r="D171" s="59"/>
+      <c r="E171" s="60"/>
+      <c r="F171" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G171" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="H171" s="61"/>
+    </row>
+    <row r="172" spans="1:8" ht="36" customHeight="1">
+      <c r="A172" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="B167" s="84"/>
-      <c r="C167" s="84"/>
-      <c r="D167" s="84"/>
-      <c r="E167" s="85"/>
-      <c r="F167" s="6"/>
-      <c r="G167" s="86" t="s">
+      <c r="B172" s="59"/>
+      <c r="C172" s="59"/>
+      <c r="D172" s="59"/>
+      <c r="E172" s="60"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="H167" s="86"/>
-    </row>
-    <row r="168" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="83" t="s">
+      <c r="H172" s="61"/>
+    </row>
+    <row r="173" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A173" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="B168" s="84"/>
-      <c r="C168" s="84"/>
-      <c r="D168" s="84"/>
-      <c r="E168" s="85"/>
-      <c r="F168" s="21" t="s">
+      <c r="B173" s="59"/>
+      <c r="C173" s="59"/>
+      <c r="D173" s="59"/>
+      <c r="E173" s="60"/>
+      <c r="F173" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G173" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="H173" s="61"/>
+    </row>
+    <row r="174" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A174" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="G168" s="86" t="s">
-        <v>127</v>
-      </c>
-      <c r="H168" s="86"/>
-    </row>
-    <row r="169" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="83" t="s">
-        <v>184</v>
-      </c>
-      <c r="B169" s="84"/>
-      <c r="C169" s="84"/>
-      <c r="D169" s="84"/>
-      <c r="E169" s="85"/>
-      <c r="F169" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="G169" s="86" t="s">
-        <v>127</v>
-      </c>
-      <c r="H169" s="86"/>
-    </row>
-    <row r="170" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="83" t="s">
-        <v>185</v>
-      </c>
-      <c r="B170" s="84"/>
-      <c r="C170" s="84"/>
-      <c r="D170" s="84"/>
-      <c r="E170" s="85"/>
-      <c r="F170" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="G170" s="86" t="s">
-        <v>127</v>
-      </c>
-      <c r="H170" s="86"/>
-    </row>
-    <row r="171" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="83" t="s">
-        <v>155</v>
-      </c>
-      <c r="B171" s="84"/>
-      <c r="C171" s="84"/>
-      <c r="D171" s="84"/>
-      <c r="E171" s="85"/>
-      <c r="F171" s="6"/>
-      <c r="G171" s="86" t="s">
-        <v>127</v>
-      </c>
-      <c r="H171" s="86"/>
-    </row>
-    <row r="172" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="83" t="s">
-        <v>156</v>
-      </c>
-      <c r="B172" s="84"/>
-      <c r="C172" s="84"/>
-      <c r="D172" s="84"/>
-      <c r="E172" s="85"/>
-      <c r="F172" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G172" s="86" t="s">
-        <v>127</v>
-      </c>
-      <c r="H172" s="86"/>
-    </row>
-    <row r="173" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="98" t="s">
-        <v>157</v>
-      </c>
-      <c r="B173" s="99"/>
-      <c r="C173" s="99"/>
-      <c r="D173" s="99"/>
-      <c r="E173" s="99"/>
-      <c r="F173" s="99"/>
-      <c r="G173" s="99"/>
-      <c r="H173" s="100"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A174" s="29"/>
-      <c r="B174" s="29"/>
-      <c r="C174" s="101" t="s">
-        <v>158</v>
-      </c>
-      <c r="D174" s="101"/>
-      <c r="E174" s="101"/>
-      <c r="F174" s="101"/>
-      <c r="G174" s="101"/>
-      <c r="H174" s="101"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B174" s="63"/>
+      <c r="C174" s="63"/>
+      <c r="D174" s="63"/>
+      <c r="E174" s="63"/>
+      <c r="F174" s="63"/>
+      <c r="G174" s="63"/>
+      <c r="H174" s="64"/>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="29"/>
       <c r="B175" s="29"/>
-      <c r="C175" s="102"/>
-      <c r="D175" s="102"/>
-      <c r="E175" s="102"/>
-      <c r="F175" s="102"/>
-      <c r="G175" s="102"/>
-      <c r="H175" s="102"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="66" t="s">
+      <c r="C175" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="D175" s="65"/>
+      <c r="E175" s="65"/>
+      <c r="F175" s="65"/>
+      <c r="G175" s="65"/>
+      <c r="H175" s="65"/>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="29"/>
+      <c r="B176" s="29"/>
+      <c r="C176" s="66"/>
+      <c r="D176" s="66"/>
+      <c r="E176" s="66"/>
+      <c r="F176" s="66"/>
+      <c r="G176" s="66"/>
+      <c r="H176" s="66"/>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B176" s="67"/>
-      <c r="C176" s="94" t="str">
+      <c r="B177" s="44"/>
+      <c r="C177" s="45" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D176" s="95"/>
-      <c r="E176" s="95"/>
-      <c r="F176" s="96"/>
-      <c r="G176" s="96"/>
-      <c r="H176" s="97"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="66" t="s">
+      <c r="D177" s="46"/>
+      <c r="E177" s="46"/>
+      <c r="F177" s="47"/>
+      <c r="G177" s="47"/>
+      <c r="H177" s="48"/>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B177" s="67"/>
-      <c r="C177" s="94" t="str">
+      <c r="B178" s="44"/>
+      <c r="C178" s="45" t="str">
         <f>$C$4</f>
         <v>CMFP190801</v>
       </c>
-      <c r="D177" s="95"/>
-      <c r="E177" s="95"/>
-      <c r="F177" s="96"/>
-      <c r="G177" s="96"/>
-      <c r="H177" s="97"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="66" t="s">
+      <c r="D178" s="46"/>
+      <c r="E178" s="46"/>
+      <c r="F178" s="47"/>
+      <c r="G178" s="47"/>
+      <c r="H178" s="48"/>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B178" s="67"/>
-      <c r="C178" s="94" t="str">
+      <c r="B179" s="44"/>
+      <c r="C179" s="45" t="str">
         <f>$C$5</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D178" s="95"/>
-      <c r="E178" s="95"/>
-      <c r="F178" s="96"/>
-      <c r="G178" s="96"/>
-      <c r="H178" s="97"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="66" t="s">
+      <c r="D179" s="46"/>
+      <c r="E179" s="46"/>
+      <c r="F179" s="47"/>
+      <c r="G179" s="47"/>
+      <c r="H179" s="48"/>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B179" s="67"/>
-      <c r="C179" s="94" t="str">
+      <c r="B180" s="44"/>
+      <c r="C180" s="45" t="str">
         <f>$C$6</f>
         <v>Halton Korea Ltd.</v>
       </c>
-      <c r="D179" s="95"/>
-      <c r="E179" s="95"/>
-      <c r="F179" s="96"/>
-      <c r="G179" s="96"/>
-      <c r="H179" s="97"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="66" t="s">
+      <c r="D180" s="46"/>
+      <c r="E180" s="46"/>
+      <c r="F180" s="47"/>
+      <c r="G180" s="47"/>
+      <c r="H180" s="48"/>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B180" s="67"/>
-      <c r="C180" s="110" t="str">
+      <c r="B181" s="44"/>
+      <c r="C181" s="49" t="str">
         <f>$C$7</f>
         <v>B1-B4</v>
       </c>
-      <c r="D180" s="111"/>
-      <c r="E180" s="111"/>
-      <c r="F180" s="112"/>
-      <c r="G180" s="112"/>
-      <c r="H180" s="113"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="66" t="s">
+      <c r="D181" s="50"/>
+      <c r="E181" s="50"/>
+      <c r="F181" s="51"/>
+      <c r="G181" s="51"/>
+      <c r="H181" s="52"/>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B181" s="114"/>
-      <c r="C181" s="115" t="str">
+      <c r="B182" s="53"/>
+      <c r="C182" s="54" t="str">
         <f>$C$8</f>
         <v>KCJ</v>
       </c>
-      <c r="D181" s="116"/>
-      <c r="E181" s="116"/>
-      <c r="F181" s="117"/>
-      <c r="G181" s="117"/>
-      <c r="H181" s="118"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A183" s="103" t="s">
+      <c r="D182" s="55"/>
+      <c r="E182" s="55"/>
+      <c r="F182" s="56"/>
+      <c r="G182" s="56"/>
+      <c r="H182" s="57"/>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B184" s="38"/>
+      <c r="C184" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D184" s="39"/>
+      <c r="E184" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="F184" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="B183" s="104"/>
-      <c r="C183" s="105" t="s">
+      <c r="G184" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="D183" s="105"/>
-      <c r="E183" s="33" t="s">
+      <c r="H184" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="F183" s="33" t="s">
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="G183" s="33" t="s">
+      <c r="B185" s="41"/>
+      <c r="C185" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="H183" s="22" t="s">
+      <c r="D185" s="42"/>
+      <c r="E185" s="34" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A184" s="106" t="s">
+      <c r="F185" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="B184" s="107"/>
-      <c r="C184" s="108" t="s">
+      <c r="G185" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="D184" s="108"/>
-      <c r="E184" s="34" t="s">
+      <c r="H185" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="F184" s="34" t="s">
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="G184" s="34" t="s">
+      <c r="B186" s="36"/>
+      <c r="C186" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="H184" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A185" s="109" t="s">
-        <v>171</v>
-      </c>
-      <c r="B185" s="109"/>
-      <c r="C185" s="109" t="s">
-        <v>172</v>
-      </c>
-      <c r="D185" s="109"/>
-      <c r="E185" s="16"/>
-      <c r="F185" s="16"/>
-      <c r="G185" s="16"/>
-      <c r="H185" s="16"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A186" s="109" t="s">
-        <v>173</v>
-      </c>
-      <c r="B186" s="109"/>
-      <c r="C186" s="109" t="s">
-        <v>172</v>
-      </c>
-      <c r="D186" s="109"/>
+      <c r="D186" s="36"/>
       <c r="E186" s="16"/>
       <c r="F186" s="16"/>
       <c r="G186" s="16"/>
       <c r="H186" s="16"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A187" s="109" t="s">
-        <v>174</v>
-      </c>
-      <c r="B187" s="109"/>
-      <c r="C187" s="109" t="s">
-        <v>172</v>
-      </c>
-      <c r="D187" s="109"/>
+    <row r="187" spans="1:8">
+      <c r="A187" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B187" s="36"/>
+      <c r="C187" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="D187" s="36"/>
       <c r="E187" s="16"/>
       <c r="F187" s="16"/>
       <c r="G187" s="16"/>
       <c r="H187" s="16"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A188" s="109" t="s">
-        <v>175</v>
-      </c>
-      <c r="B188" s="109"/>
-      <c r="C188" s="109" t="s">
-        <v>172</v>
-      </c>
-      <c r="D188" s="109"/>
+    <row r="188" spans="1:8">
+      <c r="A188" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B188" s="36"/>
+      <c r="C188" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="D188" s="36"/>
       <c r="E188" s="16"/>
       <c r="F188" s="16"/>
       <c r="G188" s="16"/>
       <c r="H188" s="16"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A189" s="109" t="s">
-        <v>176</v>
-      </c>
-      <c r="B189" s="109"/>
-      <c r="C189" s="109" t="s">
+    <row r="189" spans="1:8">
+      <c r="A189" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="D189" s="109"/>
+      <c r="B189" s="36"/>
+      <c r="C189" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="D189" s="36"/>
       <c r="E189" s="16"/>
       <c r="F189" s="16"/>
       <c r="G189" s="16"/>
       <c r="H189" s="16"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A190" s="109" t="s">
-        <v>177</v>
-      </c>
-      <c r="B190" s="109"/>
-      <c r="C190" s="109" t="s">
-        <v>172</v>
-      </c>
-      <c r="D190" s="109"/>
+    <row r="190" spans="1:8">
+      <c r="A190" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B190" s="36"/>
+      <c r="C190" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="D190" s="36"/>
       <c r="E190" s="16"/>
       <c r="F190" s="16"/>
       <c r="G190" s="16"/>
       <c r="H190" s="16"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A191" s="109" t="s">
-        <v>175</v>
-      </c>
-      <c r="B191" s="109"/>
-      <c r="C191" s="109" t="s">
-        <v>178</v>
-      </c>
-      <c r="D191" s="109"/>
+    <row r="191" spans="1:8">
+      <c r="A191" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="B191" s="36"/>
+      <c r="C191" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="D191" s="36"/>
       <c r="E191" s="16"/>
       <c r="F191" s="16"/>
       <c r="G191" s="16"/>
       <c r="H191" s="16"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A192" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="B192" s="109"/>
-      <c r="C192" s="109" t="s">
-        <v>178</v>
-      </c>
-      <c r="D192" s="109"/>
+    <row r="192" spans="1:8">
+      <c r="A192" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B192" s="36"/>
+      <c r="C192" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="D192" s="36"/>
       <c r="E192" s="16"/>
       <c r="F192" s="16"/>
       <c r="G192" s="16"/>
       <c r="H192" s="16"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A193" s="109" t="s">
-        <v>180</v>
-      </c>
-      <c r="B193" s="109"/>
-      <c r="C193" s="109" t="s">
-        <v>178</v>
-      </c>
-      <c r="D193" s="109"/>
+    <row r="193" spans="1:8">
+      <c r="A193" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="B193" s="36"/>
+      <c r="C193" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="D193" s="36"/>
       <c r="E193" s="16"/>
       <c r="F193" s="16"/>
       <c r="G193" s="16"/>
       <c r="H193" s="16"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A194" s="109" t="s">
-        <v>181</v>
-      </c>
-      <c r="B194" s="109"/>
-      <c r="C194" s="109" t="s">
-        <v>178</v>
-      </c>
-      <c r="D194" s="109"/>
+    <row r="194" spans="1:8">
+      <c r="A194" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B194" s="36"/>
+      <c r="C194" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="D194" s="36"/>
       <c r="E194" s="16"/>
       <c r="F194" s="16"/>
       <c r="G194" s="16"/>
       <c r="H194" s="16"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A195" s="109" t="s">
-        <v>182</v>
-      </c>
-      <c r="B195" s="109"/>
-      <c r="C195" s="109" t="s">
+    <row r="195" spans="1:8">
+      <c r="A195" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="D195" s="109"/>
+      <c r="B195" s="36"/>
+      <c r="C195" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="D195" s="36"/>
       <c r="E195" s="16"/>
       <c r="F195" s="16"/>
       <c r="G195" s="16"/>
       <c r="H195" s="16"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A196" s="109" t="s">
-        <v>183</v>
-      </c>
-      <c r="B196" s="109"/>
-      <c r="C196" s="109" t="s">
-        <v>178</v>
-      </c>
-      <c r="D196" s="109"/>
+    <row r="196" spans="1:8">
+      <c r="A196" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B196" s="36"/>
+      <c r="C196" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="D196" s="36"/>
       <c r="E196" s="16"/>
       <c r="F196" s="16"/>
       <c r="G196" s="16"/>
       <c r="H196" s="16"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A197" s="119"/>
-      <c r="B197" s="119"/>
-      <c r="C197" s="119"/>
-      <c r="D197" s="119"/>
+    <row r="197" spans="1:8">
+      <c r="A197" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="B197" s="36"/>
+      <c r="C197" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="D197" s="36"/>
       <c r="E197" s="16"/>
       <c r="F197" s="16"/>
       <c r="G197" s="16"/>
       <c r="H197" s="16"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A198" s="119"/>
-      <c r="B198" s="119"/>
-      <c r="C198" s="119"/>
-      <c r="D198" s="119"/>
+    <row r="198" spans="1:8">
+      <c r="A198" s="35"/>
+      <c r="B198" s="35"/>
+      <c r="C198" s="35"/>
+      <c r="D198" s="35"/>
       <c r="E198" s="16"/>
       <c r="F198" s="16"/>
       <c r="G198" s="16"/>
       <c r="H198" s="16"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A199" s="119"/>
-      <c r="B199" s="119"/>
-      <c r="C199" s="119"/>
-      <c r="D199" s="119"/>
+    <row r="199" spans="1:8">
+      <c r="A199" s="35"/>
+      <c r="B199" s="35"/>
+      <c r="C199" s="35"/>
+      <c r="D199" s="35"/>
       <c r="E199" s="16"/>
       <c r="F199" s="16"/>
       <c r="G199" s="16"/>
       <c r="H199" s="16"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A200" s="119"/>
-      <c r="B200" s="119"/>
-      <c r="C200" s="119"/>
-      <c r="D200" s="119"/>
+    <row r="200" spans="1:8">
+      <c r="A200" s="35"/>
+      <c r="B200" s="35"/>
+      <c r="C200" s="35"/>
+      <c r="D200" s="35"/>
       <c r="E200" s="16"/>
       <c r="F200" s="16"/>
       <c r="G200" s="16"/>
       <c r="H200" s="16"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A201" s="119"/>
-      <c r="B201" s="119"/>
-      <c r="C201" s="119"/>
-      <c r="D201" s="119"/>
+    <row r="201" spans="1:8">
+      <c r="A201" s="35"/>
+      <c r="B201" s="35"/>
+      <c r="C201" s="35"/>
+      <c r="D201" s="35"/>
       <c r="E201" s="16"/>
       <c r="F201" s="16"/>
       <c r="G201" s="16"/>
       <c r="H201" s="16"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A202" s="119"/>
-      <c r="B202" s="119"/>
-      <c r="C202" s="119"/>
-      <c r="D202" s="119"/>
+    <row r="202" spans="1:8">
+      <c r="A202" s="35"/>
+      <c r="B202" s="35"/>
+      <c r="C202" s="35"/>
+      <c r="D202" s="35"/>
       <c r="E202" s="16"/>
       <c r="F202" s="16"/>
       <c r="G202" s="16"/>
       <c r="H202" s="16"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A203" s="119"/>
-      <c r="B203" s="119"/>
-      <c r="C203" s="119"/>
-      <c r="D203" s="119"/>
+    <row r="203" spans="1:8">
+      <c r="A203" s="35"/>
+      <c r="B203" s="35"/>
+      <c r="C203" s="35"/>
+      <c r="D203" s="35"/>
       <c r="E203" s="16"/>
       <c r="F203" s="16"/>
       <c r="G203" s="16"/>
       <c r="H203" s="16"/>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A204" s="119"/>
-      <c r="B204" s="119"/>
-      <c r="C204" s="119"/>
-      <c r="D204" s="119"/>
+    <row r="204" spans="1:8">
+      <c r="A204" s="35"/>
+      <c r="B204" s="35"/>
+      <c r="C204" s="35"/>
+      <c r="D204" s="35"/>
       <c r="E204" s="16"/>
       <c r="F204" s="16"/>
       <c r="G204" s="16"/>
       <c r="H204" s="16"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A205" s="119"/>
-      <c r="B205" s="119"/>
-      <c r="C205" s="119"/>
-      <c r="D205" s="119"/>
+    <row r="205" spans="1:8">
+      <c r="A205" s="35"/>
+      <c r="B205" s="35"/>
+      <c r="C205" s="35"/>
+      <c r="D205" s="35"/>
       <c r="E205" s="16"/>
       <c r="F205" s="16"/>
       <c r="G205" s="16"/>
       <c r="H205" s="16"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A206" s="119"/>
-      <c r="B206" s="119"/>
-      <c r="C206" s="119"/>
-      <c r="D206" s="119"/>
+    <row r="206" spans="1:8">
+      <c r="A206" s="35"/>
+      <c r="B206" s="35"/>
+      <c r="C206" s="35"/>
+      <c r="D206" s="35"/>
       <c r="E206" s="16"/>
       <c r="F206" s="16"/>
       <c r="G206" s="16"/>
       <c r="H206" s="16"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A207" s="119"/>
-      <c r="B207" s="119"/>
-      <c r="C207" s="119"/>
-      <c r="D207" s="119"/>
+    <row r="207" spans="1:8">
+      <c r="A207" s="35"/>
+      <c r="B207" s="35"/>
+      <c r="C207" s="35"/>
+      <c r="D207" s="35"/>
       <c r="E207" s="16"/>
       <c r="F207" s="16"/>
       <c r="G207" s="16"/>
       <c r="H207" s="16"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A208" s="119"/>
-      <c r="B208" s="119"/>
-      <c r="C208" s="119"/>
-      <c r="D208" s="119"/>
+    <row r="208" spans="1:8">
+      <c r="A208" s="35"/>
+      <c r="B208" s="35"/>
+      <c r="C208" s="35"/>
+      <c r="D208" s="35"/>
       <c r="E208" s="16"/>
       <c r="F208" s="16"/>
       <c r="G208" s="16"/>
       <c r="H208" s="16"/>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A209" s="119"/>
-      <c r="B209" s="119"/>
-      <c r="C209" s="119"/>
-      <c r="D209" s="119"/>
+    <row r="209" spans="1:8">
+      <c r="A209" s="35"/>
+      <c r="B209" s="35"/>
+      <c r="C209" s="35"/>
+      <c r="D209" s="35"/>
       <c r="E209" s="16"/>
       <c r="F209" s="16"/>
       <c r="G209" s="16"/>
       <c r="H209" s="16"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A210" s="119"/>
-      <c r="B210" s="119"/>
-      <c r="C210" s="119"/>
-      <c r="D210" s="119"/>
+    <row r="210" spans="1:8">
+      <c r="A210" s="35"/>
+      <c r="B210" s="35"/>
+      <c r="C210" s="35"/>
+      <c r="D210" s="35"/>
       <c r="E210" s="16"/>
       <c r="F210" s="16"/>
       <c r="G210" s="16"/>
       <c r="H210" s="16"/>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A211" s="119"/>
-      <c r="B211" s="119"/>
-      <c r="C211" s="119"/>
-      <c r="D211" s="119"/>
+    <row r="211" spans="1:8">
+      <c r="A211" s="35"/>
+      <c r="B211" s="35"/>
+      <c r="C211" s="35"/>
+      <c r="D211" s="35"/>
       <c r="E211" s="16"/>
       <c r="F211" s="16"/>
       <c r="G211" s="16"/>
       <c r="H211" s="16"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A212" s="119"/>
-      <c r="B212" s="119"/>
-      <c r="C212" s="119"/>
-      <c r="D212" s="119"/>
+    <row r="212" spans="1:8">
+      <c r="A212" s="35"/>
+      <c r="B212" s="35"/>
+      <c r="C212" s="35"/>
+      <c r="D212" s="35"/>
       <c r="E212" s="16"/>
       <c r="F212" s="16"/>
       <c r="G212" s="16"/>
       <c r="H212" s="16"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A213" s="119"/>
-      <c r="B213" s="119"/>
-      <c r="C213" s="119"/>
-      <c r="D213" s="119"/>
+    <row r="213" spans="1:8">
+      <c r="A213" s="35"/>
+      <c r="B213" s="35"/>
+      <c r="C213" s="35"/>
+      <c r="D213" s="35"/>
       <c r="E213" s="16"/>
       <c r="F213" s="16"/>
       <c r="G213" s="16"/>
       <c r="H213" s="16"/>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A214" s="119"/>
-      <c r="B214" s="119"/>
-      <c r="C214" s="119"/>
-      <c r="D214" s="119"/>
+    <row r="214" spans="1:8">
+      <c r="A214" s="35"/>
+      <c r="B214" s="35"/>
+      <c r="C214" s="35"/>
+      <c r="D214" s="35"/>
       <c r="E214" s="16"/>
       <c r="F214" s="16"/>
       <c r="G214" s="16"/>
       <c r="H214" s="16"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A215" s="119"/>
-      <c r="B215" s="119"/>
-      <c r="C215" s="119"/>
-      <c r="D215" s="119"/>
+    <row r="215" spans="1:8">
+      <c r="A215" s="35"/>
+      <c r="B215" s="35"/>
+      <c r="C215" s="35"/>
+      <c r="D215" s="35"/>
       <c r="E215" s="16"/>
       <c r="F215" s="16"/>
       <c r="G215" s="16"/>
       <c r="H215" s="16"/>
     </row>
+    <row r="216" spans="1:8">
+      <c r="A216" s="35"/>
+      <c r="B216" s="35"/>
+      <c r="C216" s="35"/>
+      <c r="D216" s="35"/>
+      <c r="E216" s="16"/>
+      <c r="F216" s="16"/>
+      <c r="G216" s="16"/>
+      <c r="H216" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="319">
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="C213:D213"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="C215:D215"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="C210:D210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="C211:D211"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="C209:D209"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="C204:D204"/>
-    <mergeCell ref="A205:B205"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="A206:B206"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="C201:D201"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="C202:D202"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="C199:D199"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="C200:D200"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="C195:D195"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="C196:D196"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="C197:D197"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="C190:D190"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="C191:D191"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="C183:D183"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="C179:H179"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="C180:H180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="C181:H181"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="C176:H176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="C177:H177"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="C178:H178"/>
-    <mergeCell ref="A171:E171"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="A172:E172"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="A173:H173"/>
-    <mergeCell ref="C174:H175"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="A169:E169"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="A170:E170"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="A166:E166"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="A162:E162"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="A163:E163"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="A164:E164"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="A160:E160"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="A161:E161"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="A156:E156"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="A153:E153"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="A154:E154"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="A155:E155"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="A150:E150"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="A151:E151"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="A152:E152"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="A147:E147"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="A148:E148"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="A145:E145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="A141:E141"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="A142:E142"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="A143:E143"/>
-    <mergeCell ref="G143:H143"/>
+  <mergeCells count="321">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C25:H26"/>
+    <mergeCell ref="C27:H28"/>
+    <mergeCell ref="C29:H30"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="C31:H32"/>
+    <mergeCell ref="C35:H36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C33:H34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="C49:H50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="C89:H90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:H92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A99:E99"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="A131:H131"/>
+    <mergeCell ref="C132:H133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:H134"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="A126:E126"/>
+    <mergeCell ref="A127:E127"/>
+    <mergeCell ref="A128:E128"/>
     <mergeCell ref="A138:B138"/>
     <mergeCell ref="C138:H138"/>
     <mergeCell ref="A139:B139"/>
@@ -5430,176 +5474,161 @@
     <mergeCell ref="C136:H136"/>
     <mergeCell ref="A137:B137"/>
     <mergeCell ref="C137:H137"/>
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="A130:E130"/>
-    <mergeCell ref="A131:H131"/>
-    <mergeCell ref="C132:H133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C134:H134"/>
-    <mergeCell ref="A123:E123"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="A127:E127"/>
-    <mergeCell ref="A128:E128"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="A119:E119"/>
-    <mergeCell ref="A120:E120"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:E114"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="A107:E107"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A99:E99"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:H92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:H93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="C89:H90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:H91"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="C49:H50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="C31:H32"/>
-    <mergeCell ref="C35:H36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C33:H34"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:H24"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C25:H26"/>
-    <mergeCell ref="C27:H28"/>
-    <mergeCell ref="C29:H30"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="A145:E145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="A141:E141"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="A142:E142"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="A143:E143"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="A151:E151"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="A152:E152"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="A153:E153"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="A147:E147"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="A150:E150"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="A154:E154"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="A155:E155"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="A163:E163"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="A160:E160"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="A161:E161"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="A162:E162"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="A169:E169"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="A170:E170"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="A171:E171"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="A166:E166"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="C177:H177"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="C178:H178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="C179:H179"/>
+    <mergeCell ref="A172:E172"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="A174:H174"/>
+    <mergeCell ref="C175:H176"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="C180:H180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="C181:H181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="C182:H182"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="C190:D190"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="C191:D191"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="C196:D196"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="C197:D197"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="C202:D202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="C204:D204"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="C199:D199"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="C200:D200"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="C201:D201"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="C208:D208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="C209:D209"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="C210:D210"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="A206:B206"/>
+    <mergeCell ref="C206:D206"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="C211:D211"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="C213:D213"/>
   </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="48" max="7" man="1"/>
     <brk id="88" max="7" man="1"/>
     <brk id="131" max="7" man="1"/>
-    <brk id="173" max="7" man="1"/>
+    <brk id="174" max="7" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
